--- a/Roba Juve.xlsx
+++ b/Roba Juve.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f0b37c1e3af42fa/Documenti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f0b37c1e3af42fa/Documenti/GitHub/PND/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="359" documentId="8_{8786BCDD-09D4-426B-8F7E-7FA922D05DC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3BBE2E76-76B0-4C3D-AD93-7296A4121B73}"/>
+  <xr:revisionPtr revIDLastSave="754" documentId="8_{8786BCDD-09D4-426B-8F7E-7FA922D05DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21DB2828-97D3-4A7A-8B86-D7797A8192BA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{0DDF6AA1-8F03-4D30-ADC7-299886946C2F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{0DDF6AA1-8F03-4D30-ADC7-299886946C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
   <si>
     <t>18/19</t>
   </si>
@@ -57,9 +58,6 @@
     <t>11 partite di cui 5 del 19/20</t>
   </si>
   <si>
-    <t>Store Stadio</t>
-  </si>
-  <si>
     <t>20% store italia</t>
   </si>
   <si>
@@ -75,9 +73,6 @@
     <t>Acquisto Materiale</t>
   </si>
   <si>
-    <t>Rapporto Costi /ricavi</t>
-  </si>
-  <si>
     <t>Audiovideo 50%</t>
   </si>
   <si>
@@ -96,9 +91,6 @@
     <t>allestimenti 40%</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>Affluenza Media per Partita Seria A</t>
   </si>
   <si>
@@ -153,9 +145,6 @@
     <t>RICAVI TV - Serie A - Champions League</t>
   </si>
   <si>
-    <t>COSTI MARKETING</t>
-  </si>
-  <si>
     <t>COSTO DEL PERSONALE</t>
   </si>
   <si>
@@ -207,22 +196,96 @@
     <t>RICAVI ATTIVITà COMMERCIALI (MEMBERSHIP, MUSEO, STADIUM TOUR, CAMPI ESTIVI, FAN CLUB)</t>
   </si>
   <si>
-    <t>Roba Juve.xlsx</t>
-  </si>
-  <si>
     <t>spese di gestione 100%</t>
+  </si>
+  <si>
+    <t>AUDIOVIDEO</t>
+  </si>
+  <si>
+    <t>CANONI DI AFFITTO (uffici, store, locali ecc.)</t>
+  </si>
+  <si>
+    <t>STAMPATI (cartelloni pubblicitari, insegne, poster)</t>
+  </si>
+  <si>
+    <t>PULIZIA (stadio, store, uffici ecc.)</t>
+  </si>
+  <si>
+    <t>PUBBLICITÀ (televisione, radio)</t>
+  </si>
+  <si>
+    <t>ALLESTIMENTI (palchi, stand, eventi in generale)</t>
+  </si>
+  <si>
+    <t>Rapporto Ricavi / Costi</t>
+  </si>
+  <si>
+    <t>COSTI MARKETING PROPOSTA 1</t>
+  </si>
+  <si>
+    <t>COSTI MARKETING PROPOSTA FORM</t>
+  </si>
+  <si>
+    <t>40% Store Stadio</t>
+  </si>
+  <si>
+    <t>SUPERLEGA</t>
+  </si>
+  <si>
+    <t>Incasso</t>
+  </si>
+  <si>
+    <t>Interessi quota Iniziale</t>
+  </si>
+  <si>
+    <t>Percentuale</t>
+  </si>
+  <si>
+    <t>interessi totali 23 anni</t>
+  </si>
+  <si>
+    <t>RICAVI SUPERLEGA</t>
+  </si>
+  <si>
+    <t>21/22</t>
+  </si>
+  <si>
+    <t>SuperLega</t>
+  </si>
+  <si>
+    <t>Ricavi Biglietti SuperLega</t>
+  </si>
+  <si>
+    <t>Ricavi Biglietti Per partita</t>
+  </si>
+  <si>
+    <t>25% in più a partita</t>
+  </si>
+  <si>
+    <t>Super Lega</t>
+  </si>
+  <si>
+    <t>Ricavi TV SuperLega</t>
+  </si>
+  <si>
+    <t>Ricavi / partita</t>
+  </si>
+  <si>
+    <t>30% in più a partita</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +300,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -277,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -364,12 +444,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -391,9 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,11 +522,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Migliaia" xfId="2" builtinId="3"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale 2" xfId="3" xr:uid="{CDAECDC0-30C8-4AFB-8E75-D15919A6298A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -734,15 +849,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F7864D-0A19-496E-9303-A8E14AF874C0}">
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="18.90625" customWidth="1"/>
     <col min="4" max="4" width="38.81640625" customWidth="1"/>
     <col min="5" max="5" width="27.26953125" customWidth="1"/>
@@ -759,7 +875,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -771,7 +887,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -803,7 +919,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -821,7 +937,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
@@ -830,33 +946,33 @@
         <v>4</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
@@ -1009,7 +1125,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -1030,34 +1146,37 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="12" t="s">
+      <c r="I17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="J17" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>44</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1099,7 +1218,7 @@
         <f>SUM(C18:J18)</f>
         <v>9342686</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="34">
         <f>I11/K18</f>
         <v>2.8379418937979932</v>
       </c>
@@ -1143,7 +1262,7 @@
         <f>SUM(C19:J19)</f>
         <v>6007184</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="34">
         <f>I12/K19</f>
         <v>3.5707246523495866</v>
       </c>
@@ -1159,8 +1278,9 @@
         <f>2104000*D22</f>
         <v>1052000</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>20</v>
+      <c r="E20" s="3">
+        <f>AVERAGE(E18:E19)</f>
+        <v>1560600</v>
       </c>
       <c r="F20" s="3">
         <f>1092000*F22</f>
@@ -1170,22 +1290,25 @@
         <f>1038000*G22</f>
         <v>311400</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>20</v>
+      <c r="H20" s="3">
+        <f>AVERAGE(H18:H19)</f>
+        <v>615600</v>
+      </c>
+      <c r="I20" s="3">
+        <f>AVERAGE(I18:I19)</f>
+        <v>322400</v>
+      </c>
+      <c r="J20" s="3">
+        <f>AVERAGE(J18:J19)</f>
+        <v>2822500</v>
       </c>
       <c r="K20" s="1">
         <f>SUM(C20:J20)</f>
-        <v>2135408</v>
-      </c>
-      <c r="L20">
+        <v>7456508</v>
+      </c>
+      <c r="L20" s="34">
         <f>I13/K20</f>
-        <v>7.822392723076808</v>
+        <v>2.2401907166196295</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -1211,488 +1334,1261 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>12186</v>
+      </c>
+      <c r="D26" s="3">
+        <f>1078000/D22*D30</f>
+        <v>1358280</v>
+      </c>
+      <c r="E26" s="3">
+        <f>2109000/E22*E30</f>
+        <v>1827800</v>
+      </c>
+      <c r="F26" s="3">
+        <f>1094100/F22*F30</f>
+        <v>937800</v>
+      </c>
+      <c r="G26" s="3">
+        <f>304200/G22*G30</f>
+        <v>466440</v>
+      </c>
+      <c r="H26" s="3">
+        <f>656400/H22*H30</f>
+        <v>853320</v>
+      </c>
+      <c r="I26" s="3">
+        <f>410800/I22*I30</f>
+        <v>698360</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3678000</v>
+      </c>
+      <c r="K26" s="1">
+        <f>SUM(C26:J26)</f>
+        <v>9832186</v>
+      </c>
+      <c r="L26" s="34">
+        <f>I11/K26</f>
+        <v>2.6966536231108726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8784</v>
+      </c>
+      <c r="D27" s="3">
+        <f>979500/D22*D30</f>
+        <v>1234170</v>
+      </c>
+      <c r="E27" s="3">
+        <f>1012200/E22*E30</f>
+        <v>877240</v>
+      </c>
+      <c r="F27" s="3">
+        <f>917700/F22*F30</f>
+        <v>786600</v>
+      </c>
+      <c r="G27" s="3">
+        <f>313200/G22*G30</f>
+        <v>480240</v>
+      </c>
+      <c r="H27" s="3">
+        <f>574800/H22*H30</f>
+        <v>747240</v>
+      </c>
+      <c r="I27" s="3">
+        <f>234000/I22*I30</f>
+        <v>397800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1967000</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" ref="K27:K28" si="0">SUM(C27:J27)</f>
+        <v>6499074</v>
+      </c>
+      <c r="L27" s="34">
+        <f>I12/K27</f>
+        <v>3.3004701900609223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7608</v>
+      </c>
+      <c r="D28" s="3">
+        <f>1052000/D22*D30</f>
+        <v>1325520</v>
+      </c>
+      <c r="E28" s="3">
+        <f>1560600/E22*E30</f>
+        <v>1352520</v>
+      </c>
+      <c r="F28" s="3">
+        <f>764400/F22*F30</f>
+        <v>655200</v>
+      </c>
+      <c r="G28" s="3">
+        <f>311400/G22*G30</f>
+        <v>477480</v>
+      </c>
+      <c r="H28" s="3">
+        <f>615600/H22*H30</f>
+        <v>800280</v>
+      </c>
+      <c r="I28" s="3">
+        <f>322400/I22*I30</f>
+        <v>548080</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2822500</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="0"/>
+        <v>7989188</v>
+      </c>
+      <c r="L28" s="34">
+        <f>I13/K28</f>
+        <v>2.0908257510024799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="31"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>0.63</v>
+      </c>
+      <c r="E30">
+        <v>0.52</v>
+      </c>
+      <c r="F30">
+        <v>0.6</v>
+      </c>
+      <c r="G30" s="33">
+        <v>0.46</v>
+      </c>
+      <c r="H30" s="33">
+        <v>0.78</v>
+      </c>
+      <c r="I30">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="E34" s="8">
+        <v>54883000</v>
+      </c>
+      <c r="F34" s="8">
+        <f>E34/B34</f>
+        <v>2888578.9473684211</v>
+      </c>
+      <c r="G34" s="8">
+        <v>68922000</v>
+      </c>
+      <c r="H34" s="8">
+        <f>G34/C34</f>
+        <v>11487000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="E35" s="8">
+        <v>45453000</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" ref="F35" si="1">E35/B35</f>
+        <v>2673705.8823529412</v>
+      </c>
+      <c r="G35" s="8">
+        <v>72054000</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" ref="H35" si="2">G35/C35</f>
+        <v>12009000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="E36" s="8">
+        <v>70734000</v>
+      </c>
+      <c r="G36" s="8">
+        <v>73493000</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="8">
+        <f>9*F35</f>
+        <v>24063352.94117647</v>
+      </c>
+      <c r="G37" s="8">
+        <f>H35*1</f>
+        <v>12009000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="8">
+        <f>E36-E37</f>
+        <v>46670647.058823526</v>
+      </c>
+      <c r="F38" s="8">
+        <f>(E36-E37)/13</f>
+        <v>3590049.7737556556</v>
+      </c>
+      <c r="G38" s="8">
+        <f>G36-G37</f>
+        <v>61484000</v>
+      </c>
+      <c r="H38" s="8">
+        <f>G38/6</f>
+        <v>10247333.333333334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="E42" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
         <v>3</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>19</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="E28" s="8">
-        <v>54883000</v>
-      </c>
-      <c r="F28" s="8">
-        <f>E28/B28</f>
-        <v>2888578.9473684211</v>
-      </c>
-      <c r="G28" s="8">
-        <v>68922000</v>
-      </c>
-      <c r="H28" s="8">
-        <f>G28/C28</f>
-        <v>11487000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>17</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="E29" s="8">
-        <v>45453000</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" ref="F29" si="0">E29/B29</f>
-        <v>2673705.8823529412</v>
-      </c>
-      <c r="G29" s="8">
-        <v>72054000</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" ref="H29" si="1">G29/C29</f>
-        <v>12009000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>22</v>
-      </c>
-      <c r="C30">
-        <v>7</v>
-      </c>
-      <c r="E30" s="8">
-        <v>70734000</v>
-      </c>
-      <c r="G30" s="8">
-        <v>73493000</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="8">
-        <f>9*F29</f>
-        <v>24063352.94117647</v>
-      </c>
-      <c r="G31" s="8">
-        <f>H29*1</f>
-        <v>12009000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="8">
-        <f>E30-E31</f>
-        <v>46670647.058823526</v>
-      </c>
-      <c r="F32" s="8">
-        <f>(E30-E31)/13</f>
-        <v>3590049.7737556556</v>
-      </c>
-      <c r="G32" s="8">
-        <f>G30-G31</f>
-        <v>61484000</v>
-      </c>
-      <c r="H32" s="8">
-        <f>G32/6</f>
-        <v>10247333.333333334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>10</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37" s="8">
+      <c r="D43" s="8">
         <v>13170000</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E43" s="8">
         <v>9829000</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F43" s="8">
         <v>6865000</v>
       </c>
-      <c r="G37" s="8">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8">
+      <c r="G43" s="8">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8">
         <v>5103000</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I43" s="8">
         <v>3242000</v>
       </c>
-      <c r="J37" s="8">
-        <f>SUM(D37:I37)</f>
+      <c r="J43" s="8">
+        <f>SUM(D43:I43)</f>
         <v>38209000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>8</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38" s="8">
-        <v>11943000</v>
-      </c>
-      <c r="E38" s="8">
-        <v>6613000</v>
-      </c>
-      <c r="F38" s="8">
-        <v>5861000</v>
-      </c>
-      <c r="G38" s="8">
-        <v>2600000</v>
-      </c>
-      <c r="H38" s="8">
-        <v>6921000</v>
-      </c>
-      <c r="I38" s="8">
-        <v>2436000</v>
-      </c>
-      <c r="J38" s="8">
-        <f t="shared" ref="J38:J39" si="2">SUM(D38:I38)</f>
-        <v>36374000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39">
-        <v>11</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39" s="8">
-        <v>3837000</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8">
-        <v>0</v>
-      </c>
-      <c r="I39" s="8">
-        <v>1198000</v>
-      </c>
-      <c r="J39" s="8">
-        <f t="shared" si="2"/>
-        <v>5035000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1">
-        <v>143100000</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="1">
-        <v>11100000</v>
-      </c>
-      <c r="G44" s="1">
-        <v>6700000</v>
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" s="8">
+        <v>11943000</v>
+      </c>
+      <c r="E44" s="8">
+        <v>6613000</v>
+      </c>
+      <c r="F44" s="8">
+        <v>5861000</v>
+      </c>
+      <c r="G44" s="8">
+        <v>2600000</v>
+      </c>
+      <c r="H44" s="8">
+        <v>6921000</v>
+      </c>
+      <c r="I44" s="8">
+        <v>2436000</v>
+      </c>
+      <c r="J44" s="8">
+        <f t="shared" ref="J44:J45" si="3">SUM(D44:I44)</f>
+        <v>36374000</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1">
-        <v>173300000</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="E45" s="1">
-        <v>10900000</v>
-      </c>
-      <c r="F45" s="2">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="G45" s="1">
-        <v>16700000</v>
-      </c>
-      <c r="H45" s="2">
-        <v>1.4930000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="1">
-        <v>183300000</v>
-      </c>
-      <c r="D46" s="2">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="E46" s="1">
-        <v>12000000</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="G46" s="1">
-        <v>22800000</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0.36499999999999999</v>
-      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" s="8">
+        <v>3837000</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0</v>
+      </c>
+      <c r="I45" s="8">
+        <v>1198000</v>
+      </c>
+      <c r="J45" s="8">
+        <f t="shared" si="3"/>
+        <v>5035000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
+      <c r="A49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>55</v>
+      <c r="A50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>143100000</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="1">
+        <v>11100000</v>
+      </c>
+      <c r="G50" s="1">
+        <v>6700000</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="8">
-        <v>248200000</v>
-      </c>
-      <c r="D51" s="8">
-        <v>43700000</v>
-      </c>
-      <c r="E51" s="8">
-        <v>19600000</v>
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>173300000</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E51" s="1">
+        <v>10900000</v>
+      </c>
+      <c r="F51" s="2">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>16700000</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1.4930000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>183300000</v>
+      </c>
+      <c r="D52" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>12000000</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G52" s="1">
+        <v>22800000</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="8">
+        <v>248200000</v>
+      </c>
+      <c r="D57" s="8">
+        <v>43700000</v>
+      </c>
+      <c r="E57" s="8">
+        <v>19600000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C58" s="8">
         <v>195600000</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D58" s="8">
         <v>61500000</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E58" s="8">
         <v>33100000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C59" s="8">
         <v>43800000</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D59" s="8">
         <v>800000</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E59" s="8">
         <v>200000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E55" t="s">
-        <v>54</v>
-      </c>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="8">
+        <f>(3525000000*0.077)</f>
+        <v>271425000</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="D67" s="8">
+        <f>D66*0.025</f>
+        <v>6785625</v>
+      </c>
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="8">
+        <f>D67*23</f>
+        <v>156069375</v>
+      </c>
+      <c r="E68" s="35"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B72" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G72" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" s="8">
+        <v>6865000</v>
+      </c>
+      <c r="G73" s="8">
+        <f>D73/3</f>
+        <v>2288333.3333333335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" s="8">
+        <v>5861000</v>
+      </c>
+      <c r="G74" s="8">
+        <f>D74/3</f>
+        <v>1953666.6666666667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75" s="8">
+        <v>0</v>
+      </c>
+      <c r="G75" s="8">
+        <f>D75/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="F76" s="8">
+        <f>AVERAGE(D73:D74)/3*(1.25)*9</f>
+        <v>23861250</v>
+      </c>
+      <c r="G76" s="8">
+        <f>F76/9</f>
+        <v>2651250</v>
+      </c>
+      <c r="H76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="D82" s="8">
+        <v>68922000</v>
+      </c>
+      <c r="E82" s="8">
+        <f>D82/C82</f>
+        <v>11487000</v>
+      </c>
+      <c r="F82" s="8">
+        <v>0</v>
+      </c>
+      <c r="G82" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83" s="8">
+        <v>72054000</v>
+      </c>
+      <c r="E83" s="8">
+        <f>D83/C83</f>
+        <v>12009000</v>
+      </c>
+      <c r="F83" s="8">
+        <v>0</v>
+      </c>
+      <c r="G83" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+      <c r="D84" s="8">
+        <v>61484000</v>
+      </c>
+      <c r="E84" s="8">
+        <v>10247333.33</v>
+      </c>
+      <c r="F84" s="8">
+        <v>0</v>
+      </c>
+      <c r="G84" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="D85" s="8">
+        <v>0</v>
+      </c>
+      <c r="E85" s="8">
+        <v>0</v>
+      </c>
+      <c r="F85" s="8">
+        <f>AVERAGE(E82:E84)*(1.3)*9</f>
+        <v>131598999.98699999</v>
+      </c>
+      <c r="G85" s="8">
+        <f>F85/9</f>
+        <v>14622111.109666666</v>
+      </c>
+      <c r="H85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A49:H49"/>
+  <mergeCells count="18">
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A55:H55"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A8:N8"/>
-    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A31:H31"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A40:H40"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A23:L23"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D44" r:id="rId1" display="https://1drv.ms/x/s!AvpCr-PBNwtPlAqazOP8uTi111p9?e=vs6hhL" xr:uid="{93907E9E-E055-4239-ACCF-36BCBD07847F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE102A87-D10F-4548-9159-C6308E4C12C7}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="29">
+        <v>7</v>
+      </c>
+      <c r="B2" s="29">
+        <v>6</v>
+      </c>
+      <c r="C2" s="29">
+        <v>7</v>
+      </c>
+      <c r="D2" s="29">
+        <v>9</v>
+      </c>
+      <c r="E2" s="29">
+        <v>10</v>
+      </c>
+      <c r="F2" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29">
+        <v>4</v>
+      </c>
+      <c r="C3" s="29">
+        <v>2</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29">
+        <v>5</v>
+      </c>
+      <c r="F3" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="29">
+        <v>6</v>
+      </c>
+      <c r="B4" s="29">
+        <v>4</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+      <c r="E4" s="29">
+        <v>6</v>
+      </c>
+      <c r="F4" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="29">
+        <v>6</v>
+      </c>
+      <c r="B5" s="29">
+        <v>2</v>
+      </c>
+      <c r="C5" s="29">
+        <v>8</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29">
+        <v>9</v>
+      </c>
+      <c r="F5" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="29">
+        <v>6</v>
+      </c>
+      <c r="B6" s="29">
+        <v>2</v>
+      </c>
+      <c r="C6" s="29">
+        <v>8</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+      <c r="E6" s="29">
+        <v>9</v>
+      </c>
+      <c r="F6" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="29">
+        <v>7</v>
+      </c>
+      <c r="B7" s="29">
+        <v>7</v>
+      </c>
+      <c r="C7" s="29">
+        <v>6</v>
+      </c>
+      <c r="D7" s="29">
+        <v>6</v>
+      </c>
+      <c r="E7" s="29">
+        <v>10</v>
+      </c>
+      <c r="F7" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="29">
+        <v>5</v>
+      </c>
+      <c r="B8" s="29">
+        <v>7</v>
+      </c>
+      <c r="C8" s="29">
+        <v>3</v>
+      </c>
+      <c r="D8" s="29">
+        <v>6</v>
+      </c>
+      <c r="E8" s="29">
+        <v>5</v>
+      </c>
+      <c r="F8" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="29">
+        <v>6</v>
+      </c>
+      <c r="B9" s="29">
+        <v>3</v>
+      </c>
+      <c r="C9" s="29">
+        <v>7</v>
+      </c>
+      <c r="D9" s="29">
+        <v>3</v>
+      </c>
+      <c r="E9" s="29">
+        <v>6</v>
+      </c>
+      <c r="F9" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="29">
+        <v>7</v>
+      </c>
+      <c r="B10" s="29">
+        <v>7</v>
+      </c>
+      <c r="C10" s="29">
+        <v>10</v>
+      </c>
+      <c r="D10" s="29">
+        <v>7</v>
+      </c>
+      <c r="E10" s="29">
+        <v>10</v>
+      </c>
+      <c r="F10" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="29">
+        <v>9</v>
+      </c>
+      <c r="B11" s="29">
+        <v>8</v>
+      </c>
+      <c r="C11" s="29">
+        <v>6</v>
+      </c>
+      <c r="D11" s="29">
+        <v>8</v>
+      </c>
+      <c r="E11" s="29">
+        <v>8</v>
+      </c>
+      <c r="F11" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="29">
+        <v>9</v>
+      </c>
+      <c r="B12" s="29">
+        <v>8</v>
+      </c>
+      <c r="C12" s="29">
+        <v>6</v>
+      </c>
+      <c r="D12" s="29">
+        <v>8</v>
+      </c>
+      <c r="E12" s="29">
+        <v>8</v>
+      </c>
+      <c r="F12" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="30">
+        <f>AVERAGE(A2:A12)*H15</f>
+        <v>62.727272727272727</v>
+      </c>
+      <c r="B15" s="30">
+        <f>AVERAGE(B2:B12)*10</f>
+        <v>52.727272727272727</v>
+      </c>
+      <c r="C15" s="30">
+        <f>AVERAGE(C2:C12)*10</f>
+        <v>59.090909090909093</v>
+      </c>
+      <c r="D15" s="30">
+        <f>AVERAGE(D2:D12)*10</f>
+        <v>46.363636363636367</v>
+      </c>
+      <c r="E15" s="30">
+        <f>AVERAGE(E2:E12)*10</f>
+        <v>78.181818181818187</v>
+      </c>
+      <c r="F15" s="30">
+        <f>AVERAGE(F2:F12)*10</f>
+        <v>68.181818181818187</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>